--- a/Docs/req/DossierForm Field View.xlsx
+++ b/Docs/req/DossierForm Field View.xlsx
@@ -1,26 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hcuser\Documents\GitHub\REP\Docs\req\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11940" windowHeight="5130" tabRatio="966" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11940" windowHeight="5130" tabRatio="966"/>
   </bookViews>
   <sheets>
-    <sheet name="Pharmaceutical Product" sheetId="14" r:id="rId1"/>
-    <sheet name="Ingredients" sheetId="18" r:id="rId2"/>
-    <sheet name="Tissue or fluids of Origin" sheetId="19" r:id="rId3"/>
-    <sheet name="Animal Type" sheetId="20" r:id="rId4"/>
-    <sheet name="Contact" sheetId="17" r:id="rId5"/>
-    <sheet name="Disease_disorder" sheetId="16" r:id="rId6"/>
-    <sheet name="LOV" sheetId="15" r:id="rId7"/>
+    <sheet name="Status" sheetId="21" r:id="rId1"/>
+    <sheet name="Pharmaceutical Product" sheetId="14" r:id="rId2"/>
+    <sheet name="Ingredients" sheetId="18" r:id="rId3"/>
+    <sheet name="Tissue or fluids of Origin" sheetId="19" r:id="rId4"/>
+    <sheet name="Animal Type" sheetId="20" r:id="rId5"/>
+    <sheet name="Contact" sheetId="17" r:id="rId6"/>
+    <sheet name="Disease_disorder" sheetId="16" r:id="rId7"/>
+    <sheet name="LOV" sheetId="15" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="276">
   <si>
     <t>M</t>
   </si>
@@ -845,6 +851,9 @@
   </si>
   <si>
     <t>For animal or human type selected</t>
+  </si>
+  <si>
+    <t>Last Updated June 13</t>
   </si>
 </sst>
 </file>
@@ -1103,9 +1112,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="32">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1408,6 +1414,9 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1475,7 +1484,7 @@
     <tableColumn id="3" name="Field Type" dataDxfId="26"/>
     <tableColumn id="4" name="Field Length" dataDxfId="25"/>
     <tableColumn id="5" name="Rules" dataDxfId="24"/>
-    <tableColumn id="6" name="Comments" dataDxfId="0"/>
+    <tableColumn id="6" name="Comments" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1501,26 +1510,26 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:H72" totalsRowShown="0">
   <autoFilter ref="A1:H72"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Category" dataDxfId="23"/>
+    <tableColumn id="1" name="Category" dataDxfId="22"/>
     <tableColumn id="2" name="SubCategory"/>
-    <tableColumn id="3" name="English Label" dataDxfId="22"/>
+    <tableColumn id="3" name="English Label" dataDxfId="21"/>
     <tableColumn id="4" name="French Label"/>
-    <tableColumn id="5" name="Field Type" dataDxfId="21"/>
-    <tableColumn id="6" name="Field Length" dataDxfId="20"/>
-    <tableColumn id="7" name="Rules" dataDxfId="19"/>
-    <tableColumn id="8" name="Comments" dataDxfId="18"/>
+    <tableColumn id="5" name="Field Type" dataDxfId="20"/>
+    <tableColumn id="6" name="Field Length" dataDxfId="19"/>
+    <tableColumn id="7" name="Rules" dataDxfId="18"/>
+    <tableColumn id="8" name="Comments" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A1:F29" totalsRowShown="0" headerRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A1:F29" totalsRowShown="0" headerRowDxfId="16">
   <autoFilter ref="A1:F29"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="English Label" dataDxfId="16"/>
+    <tableColumn id="1" name="English Label" dataDxfId="15"/>
     <tableColumn id="2" name="French Label"/>
-    <tableColumn id="3" name="Field Type" dataDxfId="15"/>
+    <tableColumn id="3" name="Field Type" dataDxfId="14"/>
     <tableColumn id="4" name="Field Length"/>
     <tableColumn id="5" name="Rules"/>
     <tableColumn id="6" name="Comments"/>
@@ -1530,52 +1539,52 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D4" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D4" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:D4"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Salutation LOV"/>
-    <tableColumn id="2" name="English Label" dataDxfId="12"/>
-    <tableColumn id="3" name="French Label" dataDxfId="11"/>
-    <tableColumn id="4" name="Save value" dataDxfId="10"/>
+    <tableColumn id="2" name="English Label" dataDxfId="11"/>
+    <tableColumn id="3" name="French Label" dataDxfId="10"/>
+    <tableColumn id="4" name="Save value" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A6:D8" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A6:D8" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A6:D8"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Language of Correspondance"/>
-    <tableColumn id="2" name="English Label" dataDxfId="8"/>
+    <tableColumn id="2" name="English Label" dataDxfId="7"/>
     <tableColumn id="3" name="French Label"/>
-    <tableColumn id="4" name="Save value" dataDxfId="7"/>
+    <tableColumn id="4" name="Save value" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table37" displayName="Table37" ref="A10:D14" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table37" displayName="Table37" ref="A10:D14" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A10:D14"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Yes_no_unk"/>
-    <tableColumn id="2" name="English Label" dataDxfId="5"/>
+    <tableColumn id="2" name="English Label" dataDxfId="4"/>
     <tableColumn id="3" name="French Label"/>
-    <tableColumn id="4" name="Save value" dataDxfId="4"/>
+    <tableColumn id="4" name="Save value" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table379" displayName="Table379" ref="A15:D18" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table379" displayName="Table379" ref="A15:D18" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A15:D18"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Ingredient Type"/>
-    <tableColumn id="2" name="English Label" dataDxfId="2"/>
+    <tableColumn id="2" name="English Label" dataDxfId="1"/>
     <tableColumn id="3" name="French Label"/>
-    <tableColumn id="4" name="Save value" dataDxfId="1"/>
+    <tableColumn id="4" name="Save value" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1624,7 +1633,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1659,7 +1668,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1868,6 +1877,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2411,11 +2440,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -2769,7 +2798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H72"/>
   <sheetViews>
@@ -3930,7 +3959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
@@ -4252,7 +4281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -4449,7 +4478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
@@ -4721,7 +4750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
